--- a/newTest/spec_sheet_output.xlsx
+++ b/newTest/spec_sheet_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Placement</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>HangTag</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
   <si>
     <t>100% Organic in-conversion cottonCombed</t>
@@ -120,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,16 +451,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="E2">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.74</v>
+        <v>0.21</v>
       </c>
       <c r="E3">
-        <v>1.48</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="E4">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="E5">
-        <v>1.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -506,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -523,16 +527,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="E7">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -540,16 +544,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.57</v>
+        <v>0.21</v>
       </c>
       <c r="E8">
-        <v>0.57</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -557,21 +561,24 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="E9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="E10">
-        <v>7.840000000000001</v>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.369999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/newTest/spec_sheet_output.xlsx
+++ b/newTest/spec_sheet_output.xlsx
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="E2">
-        <v>2.04</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.21</v>
+        <v>0.74</v>
       </c>
       <c r="E3">
-        <v>0.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="E4">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="E5">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,10 +533,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
       <c r="E8">
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="E9">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>6.369999999999999</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>

--- a/newTest/spec_sheet_output.xlsx
+++ b/newTest/spec_sheet_output.xlsx
@@ -457,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E2">
-        <v>1.14</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.74</v>
+        <v>0.28</v>
       </c>
       <c r="E3">
-        <v>1.48</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="E4">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="E5">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="E6">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,10 +533,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="E8">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="E9">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
